--- a/wti模型3.0/data_input_auto/迪拜油.xlsx
+++ b/wti模型3.0/data_input_auto/迪拜油.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3692"/>
+  <dimension ref="A1:D3694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45679,6 +45679,34 @@
         <v>65.94</v>
       </c>
     </row>
+    <row r="3693">
+      <c r="A3693" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B3693" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="C3693" t="n">
+        <v>-0.0129</v>
+      </c>
+      <c r="D3693" t="n">
+        <v>65.62</v>
+      </c>
+    </row>
+    <row r="3694">
+      <c r="A3694" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B3694" t="n">
+        <v>64.77</v>
+      </c>
+      <c r="C3694" t="n">
+        <v>-0.1971</v>
+      </c>
+      <c r="D3694" t="n">
+        <v>64.20999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
